--- a/src/downTable.xlsx
+++ b/src/downTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17318\Documents\GitHub\m3u8-Batch-downloader\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB1495F-FFBA-471C-BE64-C884090C19BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A7306A-152A-4975-B5D2-3A2FF9CD67AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{ACBE2561-064B-4409-919B-771A0E491CCE}"/>
   </bookViews>
